--- a/biology/Médecine/Polykystose_rénale_autosomique_récessive/Polykystose_rénale_autosomique_récessive.xlsx
+++ b/biology/Médecine/Polykystose_rénale_autosomique_récessive/Polykystose_rénale_autosomique_récessive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polykystose rénale autosomique récessive ou  Rein polykystique autosomique récessif est une maladie génétique se manifestant par des dilatations des tubes collecteurs du rein et des canaux hépatiques collectant la bile, responsable d’une insuffisance rénale et insuffisance hépatique. Les manifestations de cette maladie apparaissent souvent dans la vie fœtale. La période néonatale est une période à mortalité importante (20 %) par hypoplasie pulmonaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maladie polykystique hépato-rénale</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Maladie proche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maladie de Potter type 1</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène PKHD1 situé au niveau du locus p21 du chromosome 6.
 </t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 10 000 naissances à 1 sur 40 000 naissances.
 </t>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,17 +653,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les reins sont atteints de façon bilatérale et symétrique. Sauf cas connus dans la famille, c’est souvent une surprise de l’échographie morphologique du deuxième trimestre. La maladie peut aussi se révéler plus tardivement au cours des premières années de vie en fonction du nombre de tubes collecteurs atteints.
-Période fœtale
-Les reins volumineux (jusqu'à 10 fois le volume normal pour un fœtus du même âge) et symétriques ont conservé une forme et une organisation cortico-médullaire normales. Les kystes ont une disposition  en rayons de miel. Ces reins ne sont pas fonctionnels entraînant une diminution de la production du liquide amniotique. Les uretères et la vessie sont normales. Les dilatations massives, sont habituellement associées à un oligoamnios, une hypoplasie pulmonaire et une mort périnatale. Mais il existe des aspects moins évidents avec simple augmentation de la taille du rein mais sans différenciation cortico-médullaire avec vessie et une quantité de liquide amniotique normale ne permettant pas éliminer le diagnostic.
-Naissance
-Dilatation importante des reins déformant l’abdomen avec hypertension artérielle. L’hypoplasie pulmonaire secondaire à l’oligoamnios est la cause principale des décès de la période néonatale 
-Rapidement des anomalies hépatiques cliniques, biologiques ou échographiques apparaissent : 50 % des enfants à 1 mois de vie.
-La moitié de ces enfants auront une  insuffisance rénale à 10 ans nécessitant des hémodialyses.
-Enfance
-Une insuffisance rénale s’installe progressivement et des manifestations hépatiques  avec insuffisance hépatique se compliquant de cirrhose et d’hypertension portale.
 </t>
         </is>
       </c>
@@ -654,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+          <t>Polykystose_rénale_autosomique_récessive</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,50 +683,204 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période fœtale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les reins volumineux (jusqu'à 10 fois le volume normal pour un fœtus du même âge) et symétriques ont conservé une forme et une organisation cortico-médullaire normales. Les kystes ont une disposition  en rayons de miel. Ces reins ne sont pas fonctionnels entraînant une diminution de la production du liquide amniotique. Les uretères et la vessie sont normales. Les dilatations massives, sont habituellement associées à un oligoamnios, une hypoplasie pulmonaire et une mort périnatale. Mais il existe des aspects moins évidents avec simple augmentation de la taille du rein mais sans différenciation cortico-médullaire avec vessie et une quantité de liquide amniotique normale ne permettant pas éliminer le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dilatation importante des reins déformant l’abdomen avec hypertension artérielle. L’hypoplasie pulmonaire secondaire à l’oligoamnios est la cause principale des décès de la période néonatale 
+Rapidement des anomalies hépatiques cliniques, biologiques ou échographiques apparaissent : 50 % des enfants à 1 mois de vie.
+La moitié de ces enfants auront une  insuffisance rénale à 10 ans nécessitant des hémodialyses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une insuffisance rénale s’installe progressivement et des manifestations hépatiques  avec insuffisance hépatique se compliquant de cirrhose et d’hypertension portale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clinique
-Se fait sur les critères échographiques
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Se fait sur les critères échographiques
 Et un des critères suivants :
 Absence d’anomalie rénale des parents
 Signes cliniques ou échographiques d’atteinte hépatique
 Anomalie histologique hépatique
 Antécédent de polykystose rénale type récessif dans la famille
-Notion de consanguinité
-Génétique
-La détection de la mutation par analyse génétique permet de retrouver dans 40 % des cas des mutations du gène PKHD1.
+Notion de consanguinité</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La détection de la mutation par analyse génétique permet de retrouver dans 40 % des cas des mutations du gène PKHD1.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>D’abord avec la polykystose rénale type dominant
 Dysplasie rénale bilatérale  isolée ou syndromique :
@@ -726,81 +894,280 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Mode transmission</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mode de transmission est autosomique récessif.
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Risque pour la famille
-Parents de l’enfant
-Les parents sont des porteurs obligatoires et sont asymptomatiques.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Risque pour la famille</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Parents de l’enfant</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les parents sont des porteurs obligatoires et sont asymptomatiques.
 Une échographie rénale sera effectuée chez eux pour éliminer une polykystose rénale autosomique dominante.
-En cas de nouvelle grossesse, la probabilité que l'enfant soit atteint est de 25 %, que l'enfant soit sain et non porteur du gène est de 25 % et que l'enfant soit sain et porteur du gène est de 50 %.
-Frères et sœurs
-S’ils ne sont pas atteints par la maladie, la probabilité d’être un porteur sain est de 2/3.
-Descendants d’une personne atteintes de polykystose rénale autosomique récessive
-Tous leurs enfants seront porteurs du gène pathologique.
-La fréquence des porteurs hétérozygotes est de 1/70 dans la population générale. La probabilité d’avoir un enfant atteint est de 0,7 %.
-Frères et sœurs des parents
-La probabilité d’être porteur est de 50 %.
-Diagnostic prénatal
-Grossesse  à haut risque
-Recherche de la mutation (si la mutation est connue chez les deux parents) sur le caryotype fœtal par biopsie de trophoblaste ou amniocentèse.
-La sensibilité et la spécificité du dépistage échographique n’est pas connue.
-Grossesse  à bas risque
-Si on suspecte l’existence d’une polykystose rénale autosomique récessive chez un fœtus, il faut faire une échographie des reins parentaux pour éliminer la forme dominante.</t>
+En cas de nouvelle grossesse, la probabilité que l'enfant soit atteint est de 25 %, que l'enfant soit sain et non porteur du gène est de 25 % et que l'enfant soit sain et porteur du gène est de 50 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Risque pour la famille</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Frères et sœurs</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S’ils ne sont pas atteints par la maladie, la probabilité d’être un porteur sain est de 2/3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Risque pour la famille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Descendants d’une personne atteintes de polykystose rénale autosomique récessive</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tous leurs enfants seront porteurs du gène pathologique.
+La fréquence des porteurs hétérozygotes est de 1/70 dans la population générale. La probabilité d’avoir un enfant atteint est de 0,7 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Risque pour la famille</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Frères et sœurs des parents</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>La probabilité d’être porteur est de 50 %.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Grossesse  à haut risque</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Recherche de la mutation (si la mutation est connue chez les deux parents) sur le caryotype fœtal par biopsie de trophoblaste ou amniocentèse.
+La sensibilité et la spécificité du dépistage échographique n’est pas connue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Polykystose_rénale_autosomique_récessive</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polykystose_r%C3%A9nale_autosomique_r%C3%A9cessive</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Grossesse  à bas risque</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Si on suspecte l’existence d’une polykystose rénale autosomique récessive chez un fœtus, il faut faire une échographie des reins parentaux pour éliminer la forme dominante.</t>
         </is>
       </c>
     </row>
